--- a/biology/Biochimie/Métalloprotéinase/Métalloprotéinase.xlsx
+++ b/biology/Biochimie/Métalloprotéinase/Métalloprotéinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9talloprot%C3%A9inase</t>
+          <t>Métalloprotéinase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les métalloprotéinases (ou métalloprotéases) constituent une famille d'enzyme de la classe des peptidases, appelées ainsi en raison de la présence dans leur site actif d'un ion métallique (zinc, souvent) qui participe à la catalyse de la coupure de la liaison peptidique dans les protéines.
 Il existe deux sous-groupes de métalloprotéinases:
